--- a/TF/codes/results/model.xlsx
+++ b/TF/codes/results/model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="together" sheetId="5" r:id="rId1"/>
@@ -6645,11 +6645,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="455786984"/>
-        <c:axId val="455787376"/>
+        <c:axId val="435165664"/>
+        <c:axId val="435167232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="455786984"/>
+        <c:axId val="435165664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6692,7 +6692,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455787376"/>
+        <c:crossAx val="435167232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6700,7 +6700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455787376"/>
+        <c:axId val="435167232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6751,7 +6751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455786984"/>
+        <c:crossAx val="435165664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13167,11 +13167,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="40361288"/>
-        <c:axId val="40362072"/>
+        <c:axId val="435168016"/>
+        <c:axId val="435166448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40361288"/>
+        <c:axId val="435168016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13214,7 +13214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40362072"/>
+        <c:crossAx val="435166448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13222,7 +13222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40362072"/>
+        <c:axId val="435166448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13273,7 +13273,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40361288"/>
+        <c:crossAx val="435168016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13287,7 +13287,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13475,6 +13474,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.875462476802249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33785342077133063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3412124382045481E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6223827683288659E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.124257587230737E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7907331557016811E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3987203460066685E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7411346007988488E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.592482515166211E-9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.796504619215621E-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2449182696440079E-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6268717681900775E-13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9781367435531872E-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1426509962044046E-15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8707200943198458E-16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9893140559371931E-17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3785286789083331E-18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5525284798904814E-20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5879506757865403E-21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13581,6 +13640,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>40.988812819914877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.64913863053534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7252366662732879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54979551684037509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8773843959726784E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6167579136822239E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.451740611182729E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4881778514738338E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7014613592307559E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0491574963116103E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4755382189907204E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9173924783129027E-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0310130661758379E-8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.159335528957204E-9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2715322427060301E-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.36359899910639E-11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.43285792652917E-12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4778437348916529E-13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4841859769431409E-14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13687,6 +13806,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>63.502297935870168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.69326806142049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.18028638348399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2459861916369608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91796010563089991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.234344036242534</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4772796428524173E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.185536276901831E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3986225891818569E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5715666800327299E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.2610190235213958E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4231154973175639E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3480435517884711E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7253587111466129E-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.7033331647244823E-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4507915209107276E-9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2151217953959019E-9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6989636475828381E-10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2765670725291229E-11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13793,6 +13972,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>72.003091968868105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.456488959822337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.57976229943792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6831564391372336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.837862818859056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94924457153978092</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29083690084634201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2404763146706028E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1766773882958619E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3971672977556461E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2636806838095631E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8082191386207862E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9495127423728712E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.206375470683508E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3492311734954018E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4068773838834238E-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.984805525441327E-8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.399873134630191E-8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.321166909843953E-9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13899,6 +14138,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>72.641709159734802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.138947407113108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.560201068887491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.57229604259512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5673649530281626</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.244797430529105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83195600437516459</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28569999906389171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1540193689124916E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7530515403617641E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8126607603875523E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1017051318938979E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3815345601893418E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.316367192521793E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0859548473504038E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9534681976057896E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.50981443648036E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1624682743026751E-7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1878889672392914E-8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14005,6 +14304,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>70.296537303643504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.941877734328401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.10373174085565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.59383166737873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2923211330803284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7928273793451739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6007394224474101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6277232503460024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23010841914889629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9271923163410377E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5785012239266061E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9522255458822876E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3340087743061099E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.541256862184785E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7557907398885029E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5260256133186401E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1231086172745531E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6832946053377722E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9235239495050621E-7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14019,11 +14378,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="448469792"/>
-        <c:axId val="448465872"/>
+        <c:axId val="435167624"/>
+        <c:axId val="435164096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="448469792"/>
+        <c:axId val="435167624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14066,7 +14425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448465872"/>
+        <c:crossAx val="435164096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14074,7 +14433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448465872"/>
+        <c:axId val="435164096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14125,7 +14484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448469792"/>
+        <c:crossAx val="435167624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20541,11 +20900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="444368376"/>
-        <c:axId val="444368768"/>
+        <c:axId val="435166056"/>
+        <c:axId val="117735096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="444368376"/>
+        <c:axId val="435166056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20588,7 +20947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444368768"/>
+        <c:crossAx val="117735096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20596,7 +20955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="444368768"/>
+        <c:axId val="117735096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20647,7 +21006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444368376"/>
+        <c:crossAx val="435166056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20661,7 +21020,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23385,7 +23743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GT73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -29428,8 +29786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GT52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29681,255 +30039,3315 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>4.875462476802249</v>
+      </c>
+      <c r="C3">
+        <v>0.33785342077133063</v>
+      </c>
+      <c r="D3">
+        <v>2.3412124382045481E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.6223827683288659E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.124257587230737E-4</v>
+      </c>
+      <c r="G3">
+        <v>7.7907331557016811E-6</v>
+      </c>
+      <c r="H3">
+        <v>5.3987203460066685E-7</v>
+      </c>
+      <c r="I3">
+        <v>3.7411346007988488E-8</v>
+      </c>
+      <c r="J3">
+        <v>2.592482515166211E-9</v>
+      </c>
+      <c r="K3">
+        <v>1.796504619215621E-10</v>
+      </c>
+      <c r="L3">
+        <v>1.2449182696440079E-11</v>
+      </c>
+      <c r="M3">
+        <v>8.6268717681900775E-13</v>
+      </c>
+      <c r="N3">
+        <v>5.9781367435531872E-14</v>
+      </c>
+      <c r="O3">
+        <v>4.1426509962044046E-15</v>
+      </c>
+      <c r="P3">
+        <v>2.8707200943198458E-16</v>
+      </c>
+      <c r="Q3">
+        <v>1.9893140559371931E-17</v>
+      </c>
+      <c r="R3">
+        <v>1.3785286789083331E-18</v>
+      </c>
+      <c r="S3">
+        <v>9.5525284798904814E-20</v>
+      </c>
+      <c r="T3">
+        <v>6.5879506757865403E-21</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>9.6065502080793195</v>
+      </c>
+      <c r="C4">
+        <v>0.95976580701677106</v>
+      </c>
+      <c r="D4">
+        <v>8.6886234022227241E-2</v>
+      </c>
+      <c r="E4">
+        <v>7.4330315299552391E-3</v>
+      </c>
+      <c r="F4">
+        <v>6.1293855801290026E-4</v>
+      </c>
+      <c r="G4">
+        <v>4.9255577193394651E-5</v>
+      </c>
+      <c r="H4">
+        <v>3.8831468450511309E-6</v>
+      </c>
+      <c r="I4">
+        <v>3.016516273383889E-7</v>
+      </c>
+      <c r="J4">
+        <v>2.3159926255652731E-8</v>
+      </c>
+      <c r="K4">
+        <v>1.761271928998083E-9</v>
+      </c>
+      <c r="L4">
+        <v>1.3288594079994621E-10</v>
+      </c>
+      <c r="M4">
+        <v>9.9594288956349763E-12</v>
+      </c>
+      <c r="N4">
+        <v>7.4218847652337721E-13</v>
+      </c>
+      <c r="O4">
+        <v>5.5036921009843448E-14</v>
+      </c>
+      <c r="P4">
+        <v>4.0637406667976341E-15</v>
+      </c>
+      <c r="Q4">
+        <v>2.9891854082243808E-16</v>
+      </c>
+      <c r="R4">
+        <v>2.191391813556916E-17</v>
+      </c>
+      <c r="S4">
+        <v>1.6016636569605821E-18</v>
+      </c>
+      <c r="T4">
+        <v>1.161388303729596E-19</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>14.17747619482852</v>
+      </c>
+      <c r="C5">
+        <v>1.819056116927833</v>
+      </c>
+      <c r="D5">
+        <v>0.2017649129154292</v>
+      </c>
+      <c r="E5">
+        <v>2.0457195068049491E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.9515214468479199E-3</v>
+      </c>
+      <c r="G5">
+        <v>1.7813393608409581E-4</v>
+      </c>
+      <c r="H5">
+        <v>1.572591145403599E-5</v>
+      </c>
+      <c r="I5">
+        <v>1.3524444362869591E-6</v>
+      </c>
+      <c r="J5">
+        <v>1.138875303950555E-7</v>
+      </c>
+      <c r="K5">
+        <v>9.4256762456866796E-9</v>
+      </c>
+      <c r="L5">
+        <v>7.6887605492530884E-10</v>
+      </c>
+      <c r="M5">
+        <v>6.1952290730969821E-11</v>
+      </c>
+      <c r="N5">
+        <v>4.93929947831628E-12</v>
+      </c>
+      <c r="O5">
+        <v>3.9019574807402961E-13</v>
+      </c>
+      <c r="P5">
+        <v>3.0577356134105177E-14</v>
+      </c>
+      <c r="Q5">
+        <v>2.3791575355249789E-15</v>
+      </c>
+      <c r="R5">
+        <v>1.8394637072654841E-16</v>
+      </c>
+      <c r="S5">
+        <v>1.414086331535828E-17</v>
+      </c>
+      <c r="T5">
+        <v>1.0753516341393289E-18</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>18.575946820108051</v>
+      </c>
+      <c r="C6">
+        <v>2.875130478978873</v>
+      </c>
+      <c r="D6">
+        <v>0.37524366348769028</v>
+      </c>
+      <c r="E6">
+        <v>4.3841230149773029E-2</v>
+      </c>
+      <c r="F6">
+        <v>4.7392353333998464E-3</v>
+      </c>
+      <c r="G6">
+        <v>4.8366409892574398E-4</v>
+      </c>
+      <c r="H6">
+        <v>4.7219899972243562E-5</v>
+      </c>
+      <c r="I6">
+        <v>4.4505574963376394E-6</v>
+      </c>
+      <c r="J6">
+        <v>4.0762827106521479E-7</v>
+      </c>
+      <c r="K6">
+        <v>3.6458304169782572E-8</v>
+      </c>
+      <c r="L6">
+        <v>3.1961863255489001E-9</v>
+      </c>
+      <c r="M6">
+        <v>2.7544686411012241E-10</v>
+      </c>
+      <c r="N6">
+        <v>2.3389569910750989E-11</v>
+      </c>
+      <c r="O6">
+        <v>1.9606561168134541E-12</v>
+      </c>
+      <c r="P6">
+        <v>1.624969321187257E-13</v>
+      </c>
+      <c r="Q6">
+        <v>1.333244723175377E-14</v>
+      </c>
+      <c r="R6">
+        <v>1.0840835476416569E-15</v>
+      </c>
+      <c r="S6">
+        <v>8.7434574968408413E-17</v>
+      </c>
+      <c r="T6">
+        <v>6.9569979582862096E-18</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>22.792682898769961</v>
+      </c>
+      <c r="C7">
+        <v>4.0926282920336563</v>
+      </c>
+      <c r="D7">
+        <v>0.61129634848215308</v>
+      </c>
+      <c r="E7">
+        <v>8.0622967361434872E-2</v>
+      </c>
+      <c r="F7">
+        <v>9.7213013864895278E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.095461075165253E-3</v>
+      </c>
+      <c r="H7">
+        <v>1.170829668348398E-4</v>
+      </c>
+      <c r="I7">
+        <v>1.1993194286879171E-5</v>
+      </c>
+      <c r="J7">
+        <v>1.1863816206877579E-6</v>
+      </c>
+      <c r="K7">
+        <v>1.139858247781329E-7</v>
+      </c>
+      <c r="L7">
+        <v>1.068403647288699E-8</v>
+      </c>
+      <c r="M7">
+        <v>9.8037500936724858E-10</v>
+      </c>
+      <c r="N7">
+        <v>8.8315361561581179E-11</v>
+      </c>
+      <c r="O7">
+        <v>7.8281093912912029E-12</v>
+      </c>
+      <c r="P7">
+        <v>6.8402315197307612E-13</v>
+      </c>
+      <c r="Q7">
+        <v>5.9014660834331226E-14</v>
+      </c>
+      <c r="R7">
+        <v>5.0338397278044532E-15</v>
+      </c>
+      <c r="S7">
+        <v>4.2497087331262689E-16</v>
+      </c>
+      <c r="T7">
+        <v>3.5305748123531353E-17</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>26.821006097045331</v>
+      </c>
+      <c r="C8">
+        <v>5.4407084972965061</v>
+      </c>
+      <c r="D8">
+        <v>0.9114134633333113</v>
+      </c>
+      <c r="E8">
+        <v>0.13358236500959361</v>
+      </c>
+      <c r="F8">
+        <v>1.7743737287859891E-2</v>
+      </c>
+      <c r="G8">
+        <v>2.1855583332558758E-3</v>
+      </c>
+      <c r="H8">
+        <v>2.535951047846462E-4</v>
+      </c>
+      <c r="I8">
+        <v>2.803360068599635E-5</v>
+      </c>
+      <c r="J8">
+        <v>2.977176576311151E-6</v>
+      </c>
+      <c r="K8">
+        <v>3.0568941191837002E-7</v>
+      </c>
+      <c r="L8">
+        <v>3.0497086778553873E-8</v>
+      </c>
+      <c r="M8">
+        <v>2.9678904595736241E-9</v>
+      </c>
+      <c r="N8">
+        <v>2.8263726817307262E-10</v>
+      </c>
+      <c r="O8">
+        <v>2.640790941616531E-11</v>
+      </c>
+      <c r="P8">
+        <v>2.4260509701843539E-12</v>
+      </c>
+      <c r="Q8">
+        <v>2.1954025184436599E-13</v>
+      </c>
+      <c r="R8">
+        <v>1.9599421129812991E-14</v>
+      </c>
+      <c r="S8">
+        <v>1.728357940366768E-15</v>
+      </c>
+      <c r="T8">
+        <v>1.4963308909730409E-16</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>30.65648047277929</v>
+      </c>
+      <c r="C9">
+        <v>6.8924501851307074</v>
+      </c>
+      <c r="D9">
+        <v>1.2751909954096361</v>
+      </c>
+      <c r="E9">
+        <v>0.20515095664263239</v>
+      </c>
+      <c r="F9">
+        <v>2.971831328861364E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.9678699440167343E-3</v>
+      </c>
+      <c r="H9">
+        <v>4.9632173393054826E-4</v>
+      </c>
+      <c r="I9">
+        <v>5.8856388168137322E-5</v>
+      </c>
+      <c r="J9">
+        <v>6.6758859324887093E-6</v>
+      </c>
+      <c r="K9">
+        <v>7.2925064905957794E-7</v>
+      </c>
+      <c r="L9">
+        <v>7.7130829895546924E-8</v>
+      </c>
+      <c r="M9">
+        <v>7.9327996939292086E-9</v>
+      </c>
+      <c r="N9">
+        <v>7.9613492175629895E-10</v>
+      </c>
+      <c r="O9">
+        <v>7.8190819373716509E-11</v>
+      </c>
+      <c r="P9">
+        <v>7.5330914605239877E-12</v>
+      </c>
+      <c r="Q9">
+        <v>7.1336967657689244E-13</v>
+      </c>
+      <c r="R9">
+        <v>6.6515701786376474E-14</v>
+      </c>
+      <c r="S9">
+        <v>6.1152352029039497E-15</v>
+      </c>
+      <c r="T9">
+        <v>5.5073440114622424E-16</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>34.296600718293213</v>
+      </c>
+      <c r="C10">
+        <v>8.4243467515026556</v>
+      </c>
+      <c r="D10">
+        <v>1.700799864361499</v>
+      </c>
+      <c r="E10">
+        <v>0.29736383911862002</v>
+      </c>
+      <c r="F10">
+        <v>4.6588844825585667E-2</v>
+      </c>
+      <c r="G10">
+        <v>6.6954947447018728E-3</v>
+      </c>
+      <c r="H10">
+        <v>8.9745467238229817E-4</v>
+      </c>
+      <c r="I10">
+        <v>1.135763307095976E-4</v>
+      </c>
+      <c r="J10">
+        <v>1.3697270805150431E-5</v>
+      </c>
+      <c r="K10">
+        <v>1.5855218089748049E-6</v>
+      </c>
+      <c r="L10">
+        <v>1.7716231173951961E-7</v>
+      </c>
+      <c r="M10">
+        <v>1.919633755389196E-8</v>
+      </c>
+      <c r="N10">
+        <v>2.0245866177987692E-9</v>
+      </c>
+      <c r="O10">
+        <v>2.0848188223645501E-10</v>
+      </c>
+      <c r="P10">
+        <v>2.1015432458372051E-11</v>
+      </c>
+      <c r="Q10">
+        <v>2.078245153389915E-12</v>
+      </c>
+      <c r="R10">
+        <v>2.0200130857055799E-13</v>
+      </c>
+      <c r="S10">
+        <v>1.9327548553470779E-14</v>
+      </c>
+      <c r="T10">
+        <v>1.8077054184688679E-15</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>37.740520166756014</v>
+      </c>
+      <c r="C11">
+        <v>10.01587685252594</v>
+      </c>
+      <c r="D11">
+        <v>2.1853598010869559</v>
+      </c>
+      <c r="E11">
+        <v>0.411841958716194</v>
+      </c>
+      <c r="F11">
+        <v>6.9300611315107286E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.065634503304104E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.5227073552143951E-3</v>
+      </c>
+      <c r="I11">
+        <v>2.0472821278896179E-4</v>
+      </c>
+      <c r="J11">
+        <v>2.6147596355581181E-5</v>
+      </c>
+      <c r="K11">
+        <v>3.196049302584938E-6</v>
+      </c>
+      <c r="L11">
+        <v>3.7609591971534448E-7</v>
+      </c>
+      <c r="M11">
+        <v>4.2812636543563228E-8</v>
+      </c>
+      <c r="N11">
+        <v>4.7330907426728201E-9</v>
+      </c>
+      <c r="O11">
+        <v>5.0984650270803761E-10</v>
+      </c>
+      <c r="P11">
+        <v>5.3660018638038072E-11</v>
+      </c>
+      <c r="Q11">
+        <v>5.5308618138635583E-12</v>
+      </c>
+      <c r="R11">
+        <v>5.5941324560959157E-13</v>
+      </c>
+      <c r="S11">
+        <v>5.5613890343543689E-14</v>
+      </c>
+      <c r="T11">
+        <v>5.3938074534072098E-15</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>40.988812819914877</v>
+      </c>
+      <c r="C12">
+        <v>11.64913863053534</v>
+      </c>
+      <c r="D12">
+        <v>2.7252366662732879</v>
+      </c>
+      <c r="E12">
+        <v>0.54979551684037509</v>
+      </c>
+      <c r="F12">
+        <v>9.8773843959726784E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.6167579136822239E-2</v>
+      </c>
+      <c r="H12">
+        <v>2.451740611182729E-3</v>
+      </c>
+      <c r="I12">
+        <v>3.4881778514738338E-4</v>
+      </c>
+      <c r="J12">
+        <v>4.7014613592307559E-5</v>
+      </c>
+      <c r="K12">
+        <v>6.0491574963116103E-6</v>
+      </c>
+      <c r="L12">
+        <v>7.4755382189907204E-7</v>
+      </c>
+      <c r="M12">
+        <v>8.9173924783129027E-8</v>
+      </c>
+      <c r="N12">
+        <v>1.0310130661758379E-8</v>
+      </c>
+      <c r="O12">
+        <v>1.159335528957204E-9</v>
+      </c>
+      <c r="P12">
+        <v>1.2715322427060301E-10</v>
+      </c>
+      <c r="Q12">
+        <v>1.36359899910639E-11</v>
+      </c>
+      <c r="R12">
+        <v>1.43285792652917E-12</v>
+      </c>
+      <c r="S12">
+        <v>1.4778437348916529E-13</v>
+      </c>
+      <c r="T12">
+        <v>1.4841859769431409E-14</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>44.043264626043801</v>
+      </c>
+      <c r="C13">
+        <v>13.30853626687751</v>
+      </c>
+      <c r="D13">
+        <v>3.31627836198841</v>
+      </c>
+      <c r="E13">
+        <v>0.71204165353833582</v>
+      </c>
+      <c r="F13">
+        <v>0.13588165381277059</v>
+      </c>
+      <c r="G13">
+        <v>2.356927725025346E-2</v>
+      </c>
+      <c r="H13">
+        <v>3.7781271056264438E-3</v>
+      </c>
+      <c r="I13">
+        <v>5.6680814154586989E-4</v>
+      </c>
+      <c r="J13">
+        <v>8.0368632446377482E-5</v>
+      </c>
+      <c r="K13">
+        <v>1.0854359022759299E-5</v>
+      </c>
+      <c r="L13">
+        <v>1.405104679737172E-6</v>
+      </c>
+      <c r="M13">
+        <v>1.752360596913039E-7</v>
+      </c>
+      <c r="N13">
+        <v>2.1144125997621159E-8</v>
+      </c>
+      <c r="O13">
+        <v>2.477134002223204E-9</v>
+      </c>
+      <c r="P13">
+        <v>2.8262292265025792E-10</v>
+      </c>
+      <c r="Q13">
+        <v>3.1483072822997748E-11</v>
+      </c>
+      <c r="R13">
+        <v>3.4317583949106818E-12</v>
+      </c>
+      <c r="S13">
+        <v>3.666998215925162E-13</v>
+      </c>
+      <c r="T13">
+        <v>3.8084349566235087E-14</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>46.906690026609851</v>
+      </c>
+      <c r="C14">
+        <v>14.98050998627194</v>
+      </c>
+      <c r="D14">
+        <v>3.9540014383644131</v>
+      </c>
+      <c r="E14">
+        <v>0.8990313451569143</v>
+      </c>
+      <c r="F14">
+        <v>0.18143239718164891</v>
+      </c>
+      <c r="G14">
+        <v>3.321774131736268E-2</v>
+      </c>
+      <c r="H14">
+        <v>5.6088862919417551E-3</v>
+      </c>
+      <c r="I14">
+        <v>8.8452109546221331E-4</v>
+      </c>
+      <c r="J14">
+        <v>1.315678229369655E-4</v>
+      </c>
+      <c r="K14">
+        <v>1.8604431544067371E-5</v>
+      </c>
+      <c r="L14">
+        <v>2.516946667520168E-6</v>
+      </c>
+      <c r="M14">
+        <v>3.2748663826040298E-7</v>
+      </c>
+      <c r="N14">
+        <v>4.1158841114377622E-8</v>
+      </c>
+      <c r="O14">
+        <v>5.0149829278079246E-9</v>
+      </c>
+      <c r="P14">
+        <v>5.9423631104726123E-10</v>
+      </c>
+      <c r="Q14">
+        <v>6.8657049249138834E-11</v>
+      </c>
+      <c r="R14">
+        <v>7.7524927777799483E-12</v>
+      </c>
+      <c r="S14">
+        <v>8.5711609228688537E-13</v>
+      </c>
+      <c r="T14">
+        <v>9.1942790473436134E-14</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>49.582770434001887</v>
+      </c>
+      <c r="C15">
+        <v>16.653302299099021</v>
+      </c>
+      <c r="D15">
+        <v>4.6337380745347696</v>
+      </c>
+      <c r="E15">
+        <v>1.110881802099976</v>
+      </c>
+      <c r="F15">
+        <v>0.23615624145345299</v>
+      </c>
+      <c r="G15">
+        <v>4.547873420448139E-2</v>
+      </c>
+      <c r="H15">
+        <v>8.0636380444937018E-3</v>
+      </c>
+      <c r="I15">
+        <v>1.3329387914053469E-3</v>
+      </c>
+      <c r="J15">
+        <v>2.0746073760617229E-4</v>
+      </c>
+      <c r="K15">
+        <v>3.0644117172082997E-5</v>
+      </c>
+      <c r="L15">
+        <v>4.3235670881892344E-6</v>
+      </c>
+      <c r="M15">
+        <v>5.8577226265878637E-7</v>
+      </c>
+      <c r="N15">
+        <v>7.6547742108131507E-8</v>
+      </c>
+      <c r="O15">
+        <v>9.6844839794002742E-9</v>
+      </c>
+      <c r="P15">
+        <v>1.1899889955734079E-9</v>
+      </c>
+      <c r="Q15">
+        <v>1.424025683233706E-10</v>
+      </c>
+      <c r="R15">
+        <v>1.6635129501230741E-11</v>
+      </c>
+      <c r="S15">
+        <v>1.9006497222258618E-12</v>
+      </c>
+      <c r="T15">
+        <v>2.1034031745819409E-13</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:202" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>52.075911829117693</v>
+      </c>
+      <c r="C16">
+        <v>18.31675460377301</v>
+      </c>
+      <c r="D16">
+        <v>5.3507511868531772</v>
+      </c>
+      <c r="E16">
+        <v>1.3474116739134441</v>
+      </c>
+      <c r="F16">
+        <v>0.30069555864206959</v>
+      </c>
+      <c r="G16">
+        <v>6.0720908228403848E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.127343311376872E-2</v>
+      </c>
+      <c r="I16">
+        <v>1.9483963650713441E-3</v>
+      </c>
+      <c r="J16">
+        <v>3.165792871989198E-4</v>
+      </c>
+      <c r="K16">
+        <v>4.8744079235839833E-5</v>
+      </c>
+      <c r="L16">
+        <v>7.1583970697202467E-6</v>
+      </c>
+      <c r="M16">
+        <v>1.00808967273833E-6</v>
+      </c>
+      <c r="N16">
+        <v>1.3674990175071039E-7</v>
+      </c>
+      <c r="O16">
+        <v>1.7937126295327421E-8</v>
+      </c>
+      <c r="P16">
+        <v>2.282379789033718E-9</v>
+      </c>
+      <c r="Q16">
+        <v>2.8251820099389862E-10</v>
+      </c>
+      <c r="R16">
+        <v>3.4102021335679632E-11</v>
+      </c>
+      <c r="S16">
+        <v>4.0219896080717787E-12</v>
+      </c>
+      <c r="T16">
+        <v>4.5870645353787616E-13</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>54.391119099374187</v>
+      </c>
+      <c r="C17">
+        <v>19.96212934695027</v>
+      </c>
+      <c r="D17">
+        <v>6.1003238842421066</v>
+      </c>
+      <c r="E17">
+        <v>1.608177138895579</v>
+      </c>
+      <c r="F17">
+        <v>0.37559870582573218</v>
+      </c>
+      <c r="G17">
+        <v>7.9309612551669392E-2</v>
+      </c>
+      <c r="H17">
+        <v>1.5379323318425781E-2</v>
+      </c>
+      <c r="I17">
+        <v>2.772661643395347E-3</v>
+      </c>
+      <c r="J17">
+        <v>4.6931594741495659E-4</v>
+      </c>
+      <c r="K17">
+        <v>7.5178504135027063E-5</v>
+      </c>
+      <c r="L17">
+        <v>1.147137209493799E-5</v>
+      </c>
+      <c r="M17">
+        <v>1.6764278700707679E-6</v>
+      </c>
+      <c r="N17">
+        <v>2.357111118590211E-7</v>
+      </c>
+      <c r="O17">
+        <v>3.2009480001158648E-8</v>
+      </c>
+      <c r="P17">
+        <v>4.2122694661865008E-9</v>
+      </c>
+      <c r="Q17">
+        <v>5.3867989562413796E-10</v>
+      </c>
+      <c r="R17">
+        <v>6.7111507939767389E-11</v>
+      </c>
+      <c r="S17">
+        <v>8.1617028064939573E-12</v>
+      </c>
+      <c r="T17">
+        <v>9.583126534977525E-13</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>56.533885092972149</v>
+      </c>
+      <c r="C18">
+        <v>21.581953806782419</v>
+      </c>
+      <c r="D18">
+        <v>6.8778282684945564</v>
+      </c>
+      <c r="E18">
+        <v>1.892507533362308</v>
+      </c>
+      <c r="F18">
+        <v>0.46131672906417381</v>
+      </c>
+      <c r="G18">
+        <v>0.1016012152465602</v>
+      </c>
+      <c r="H18">
+        <v>2.0530735115081321E-2</v>
+      </c>
+      <c r="I18">
+        <v>3.852902441796765E-3</v>
+      </c>
+      <c r="J18">
+        <v>6.7807974852994435E-4</v>
+      </c>
+      <c r="K18">
+        <v>1.128045692004718E-4</v>
+      </c>
+      <c r="L18">
+        <v>1.7855203189058441E-5</v>
+      </c>
+      <c r="M18">
+        <v>2.7037258541506851E-6</v>
+      </c>
+      <c r="N18">
+        <v>3.9347332024190071E-7</v>
+      </c>
+      <c r="O18">
+        <v>5.5248391119112243E-8</v>
+      </c>
+      <c r="P18">
+        <v>7.5098509707436156E-9</v>
+      </c>
+      <c r="Q18">
+        <v>9.9107962933895102E-10</v>
+      </c>
+      <c r="R18">
+        <v>1.2730495936945E-10</v>
+      </c>
+      <c r="S18">
+        <v>1.5948432270981012E-11</v>
+      </c>
+      <c r="T18">
+        <v>1.9260234786002009E-12</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>58.510092658584831</v>
+      </c>
+      <c r="C19">
+        <v>23.16988226519528</v>
+      </c>
+      <c r="D19">
+        <v>7.6787776019665586</v>
+      </c>
+      <c r="E19">
+        <v>2.1995396071378588</v>
+      </c>
+      <c r="F19">
+        <v>0.55820253450356028</v>
+      </c>
+      <c r="G19">
+        <v>0.12793802986159239</v>
+      </c>
+      <c r="H19">
+        <v>2.6883707907526859E-2</v>
+      </c>
+      <c r="I19">
+        <v>5.2415458590305691E-3</v>
+      </c>
+      <c r="J19">
+        <v>9.5742652595684344E-4</v>
+      </c>
+      <c r="K19">
+        <v>1.6514191071935889E-4</v>
+      </c>
+      <c r="L19">
+        <v>2.707406446796424E-5</v>
+      </c>
+      <c r="M19">
+        <v>4.2419842028919971E-6</v>
+      </c>
+      <c r="N19">
+        <v>6.381332970861648E-7</v>
+      </c>
+      <c r="O19">
+        <v>9.2532101833633462E-8</v>
+      </c>
+      <c r="P19">
+        <v>1.297729051261752E-8</v>
+      </c>
+      <c r="Q19">
+        <v>1.765473465025383E-9</v>
+      </c>
+      <c r="R19">
+        <v>2.335793635136405E-10</v>
+      </c>
+      <c r="S19">
+        <v>3.0115313804280031E-11</v>
+      </c>
+      <c r="T19">
+        <v>3.7372832611574171E-12</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>60.325928182747212</v>
+      </c>
+      <c r="C20">
+        <v>24.720573902283519</v>
+      </c>
+      <c r="D20">
+        <v>8.498865085422791</v>
+      </c>
+      <c r="E20">
+        <v>2.5282498117649692</v>
+      </c>
+      <c r="F20">
+        <v>0.66651209594602057</v>
+      </c>
+      <c r="G20">
+        <v>0.1586438981578274</v>
+      </c>
+      <c r="H20">
+        <v>3.459905407257164E-2</v>
+      </c>
+      <c r="I20">
+        <v>6.9960370503756716E-3</v>
+      </c>
+      <c r="J20">
+        <v>1.324159919993489E-3</v>
+      </c>
+      <c r="K20">
+        <v>2.3645021506938331E-4</v>
+      </c>
+      <c r="L20">
+        <v>4.0094314520581142E-5</v>
+      </c>
+      <c r="M20">
+        <v>6.4915396294902204E-6</v>
+      </c>
+      <c r="N20">
+        <v>1.008207570877091E-6</v>
+      </c>
+      <c r="O20">
+        <v>1.5080393465054489E-7</v>
+      </c>
+      <c r="P20">
+        <v>2.179820863539194E-8</v>
+      </c>
+      <c r="Q20">
+        <v>3.0539591549193E-9</v>
+      </c>
+      <c r="R20">
+        <v>4.157807981206341E-10</v>
+      </c>
+      <c r="S20">
+        <v>5.5120373909387878E-11</v>
+      </c>
+      <c r="T20">
+        <v>7.0232010119900411E-12</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>61.987805339501222</v>
+      </c>
+      <c r="C21">
+        <v>26.229584205699449</v>
+      </c>
+      <c r="D21">
+        <v>9.3339918645968289</v>
+      </c>
+      <c r="E21">
+        <v>2.8774842631696842</v>
+      </c>
+      <c r="F21">
+        <v>0.78640730430148442</v>
+      </c>
+      <c r="G21">
+        <v>0.19402044987658551</v>
+      </c>
+      <c r="H21">
+        <v>4.384049193616385E-2</v>
+      </c>
+      <c r="I21">
+        <v>9.1785072906447555E-3</v>
+      </c>
+      <c r="J21">
+        <v>1.797400648489228E-3</v>
+      </c>
+      <c r="K21">
+        <v>3.3180311253043108E-4</v>
+      </c>
+      <c r="L21">
+        <v>5.8116794834732317E-5</v>
+      </c>
+      <c r="M21">
+        <v>9.7114810659235492E-6</v>
+      </c>
+      <c r="N21">
+        <v>1.555435252531403E-6</v>
+      </c>
+      <c r="O21">
+        <v>2.3973545981814991E-7</v>
+      </c>
+      <c r="P21">
+        <v>3.5679731699958232E-8</v>
+      </c>
+      <c r="Q21">
+        <v>5.1430418888451868E-9</v>
+      </c>
+      <c r="R21">
+        <v>7.198862518057259E-10</v>
+      </c>
+      <c r="S21">
+        <v>9.804878582991375E-11</v>
+      </c>
+      <c r="T21">
+        <v>1.2816468860675121E-11</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>63.502297935870168</v>
+      </c>
+      <c r="C22">
+        <v>27.69326806142049</v>
+      </c>
+      <c r="D22">
+        <v>10.18028638348399</v>
+      </c>
+      <c r="E22">
+        <v>3.2459861916369608</v>
+      </c>
+      <c r="F22">
+        <v>0.91796010563089991</v>
+      </c>
+      <c r="G22">
+        <v>0.234344036242534</v>
+      </c>
+      <c r="H22">
+        <v>5.4772796428524173E-2</v>
+      </c>
+      <c r="I22">
+        <v>1.185536276901831E-2</v>
+      </c>
+      <c r="J22">
+        <v>2.3986225891818569E-3</v>
+      </c>
+      <c r="K22">
+        <v>4.5715666800327299E-4</v>
+      </c>
+      <c r="L22">
+        <v>8.2610190235213958E-5</v>
+      </c>
+      <c r="M22">
+        <v>1.4231154973175639E-5</v>
+      </c>
+      <c r="N22">
+        <v>2.3480435517884711E-6</v>
+      </c>
+      <c r="O22">
+        <v>3.7253587111466129E-7</v>
+      </c>
+      <c r="P22">
+        <v>5.7033331647244823E-8</v>
+      </c>
+      <c r="Q22">
+        <v>8.4507915209107276E-9</v>
+      </c>
+      <c r="R22">
+        <v>1.2151217953959019E-9</v>
+      </c>
+      <c r="S22">
+        <v>1.6989636475828381E-10</v>
+      </c>
+      <c r="T22">
+        <v>2.2765670725291229E-11</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>64.876080878592589</v>
+      </c>
+      <c r="C23">
+        <v>29.108692996321629</v>
+      </c>
+      <c r="D23">
+        <v>11.034116800314861</v>
+      </c>
+      <c r="E23">
+        <v>3.632420814693972</v>
+      </c>
+      <c r="F23">
+        <v>1.061157617285726</v>
+      </c>
+      <c r="G23">
+        <v>0.27986331556281357</v>
+      </c>
+      <c r="H23">
+        <v>6.7560005343395693E-2</v>
+      </c>
+      <c r="I23">
+        <v>1.5096806559872E-2</v>
+      </c>
+      <c r="J23">
+        <v>3.151655162019503E-3</v>
+      </c>
+      <c r="K23">
+        <v>6.1941092463757552E-4</v>
+      </c>
+      <c r="L23">
+        <v>1.153448951844295E-4</v>
+      </c>
+      <c r="M23">
+        <v>2.046267759647844E-5</v>
+      </c>
+      <c r="N23">
+        <v>3.474492799812381E-6</v>
+      </c>
+      <c r="O23">
+        <v>5.6692360344518918E-7</v>
+      </c>
+      <c r="P23">
+        <v>8.9201061209597762E-8</v>
+      </c>
+      <c r="Q23">
+        <v>1.3575138503418341E-8</v>
+      </c>
+      <c r="R23">
+        <v>2.0035530785839961E-9</v>
+      </c>
+      <c r="S23">
+        <v>2.873586936008269E-10</v>
+      </c>
+      <c r="T23">
+        <v>3.9443419149446008E-11</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>66.1158784071676</v>
+      </c>
+      <c r="C24">
+        <v>30.473561291020541</v>
+      </c>
+      <c r="D24">
+        <v>11.89209785860988</v>
+      </c>
+      <c r="E24">
+        <v>4.0353976548869408</v>
+      </c>
+      <c r="F24">
+        <v>1.215907953576121</v>
+      </c>
+      <c r="G24">
+        <v>0.33079745589523379</v>
+      </c>
+      <c r="H24">
+        <v>8.2363712369599898E-2</v>
+      </c>
+      <c r="I24">
+        <v>1.8976306671518482E-2</v>
+      </c>
+      <c r="J24">
+        <v>4.0826523690182239E-3</v>
+      </c>
+      <c r="K24">
+        <v>8.2646315400198352E-4</v>
+      </c>
+      <c r="L24">
+        <v>1.5842680604084329E-4</v>
+      </c>
+      <c r="M24">
+        <v>2.891434378487588E-5</v>
+      </c>
+      <c r="N24">
+        <v>5.0477088838763709E-6</v>
+      </c>
+      <c r="O24">
+        <v>8.4627503367674789E-7</v>
+      </c>
+      <c r="P24">
+        <v>1.367340613716083E-7</v>
+      </c>
+      <c r="Q24">
+        <v>2.1355591091599759E-8</v>
+      </c>
+      <c r="R24">
+        <v>3.2327781638591E-9</v>
+      </c>
+      <c r="S24">
+        <v>4.7527880205722782E-10</v>
+      </c>
+      <c r="T24">
+        <v>6.6780795960365714E-11</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>67.228418839631487</v>
+      </c>
+      <c r="C25">
+        <v>31.786139884293441</v>
+      </c>
+      <c r="D25">
+        <v>12.751093344866771</v>
+      </c>
+      <c r="E25">
+        <v>4.4534903836512774</v>
+      </c>
+      <c r="F25">
+        <v>1.3820465319899919</v>
+      </c>
+      <c r="G25">
+        <v>0.38733491050208979</v>
+      </c>
+      <c r="H25">
+        <v>9.934147159988789E-2</v>
+      </c>
+      <c r="I25">
+        <v>2.3570023076285671E-2</v>
+      </c>
+      <c r="J25">
+        <v>5.220029612273404E-3</v>
+      </c>
+      <c r="K25">
+        <v>1.0872516889508859E-3</v>
+      </c>
+      <c r="L25">
+        <v>2.143304524896437E-4</v>
+      </c>
+      <c r="M25">
+        <v>4.0204796638406158E-5</v>
+      </c>
+      <c r="N25">
+        <v>7.2098014562973274E-6</v>
+      </c>
+      <c r="O25">
+        <v>1.2409634294504361E-6</v>
+      </c>
+      <c r="P25">
+        <v>2.0573034977465369E-7</v>
+      </c>
+      <c r="Q25">
+        <v>3.2950875136939153E-8</v>
+      </c>
+      <c r="R25">
+        <v>5.1124510659670827E-9</v>
+      </c>
+      <c r="S25">
+        <v>7.6993827134480199E-10</v>
+      </c>
+      <c r="T25">
+        <v>1.106688428171982E-10</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>68.220395163824165</v>
+      </c>
+      <c r="C26">
+        <v>33.045197156635467</v>
+      </c>
+      <c r="D26">
+        <v>13.608215053722139</v>
+      </c>
+      <c r="E26">
+        <v>4.8852543115009013</v>
+      </c>
+      <c r="F26">
+        <v>1.5593426673999731</v>
+      </c>
+      <c r="G26">
+        <v>0.44963271592382043</v>
+      </c>
+      <c r="H26">
+        <v>0.11864533221929841</v>
+      </c>
+      <c r="I26">
+        <v>2.8956206257407659E-2</v>
+      </c>
+      <c r="J26">
+        <v>6.5943700595418181E-3</v>
+      </c>
+      <c r="K26">
+        <v>1.4117894525311611E-3</v>
+      </c>
+      <c r="L26">
+        <v>2.8593089027394679E-4</v>
+      </c>
+      <c r="M26">
+        <v>5.5077800320521783E-5</v>
+      </c>
+      <c r="N26">
+        <v>1.013725639354188E-5</v>
+      </c>
+      <c r="O26">
+        <v>1.7898991821188959E-6</v>
+      </c>
+      <c r="P26">
+        <v>3.0423887905166338E-7</v>
+      </c>
+      <c r="Q26">
+        <v>4.9935191947051757E-8</v>
+      </c>
+      <c r="R26">
+        <v>7.935464968847851E-9</v>
+      </c>
+      <c r="S26">
+        <v>1.2234117766535439E-9</v>
+      </c>
+      <c r="T26">
+        <v>1.7977740081851871E-10</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
+      <c r="B27">
+        <v>69.098430880830193</v>
+      </c>
+      <c r="C27">
+        <v>34.249945817216982</v>
+      </c>
+      <c r="D27">
+        <v>14.460819010872539</v>
+      </c>
+      <c r="E27">
+        <v>5.3292416689080762</v>
+      </c>
+      <c r="F27">
+        <v>1.7475062945333131</v>
+      </c>
+      <c r="G27">
+        <v>0.51781625932530084</v>
+      </c>
+      <c r="H27">
+        <v>0.14042051663579419</v>
+      </c>
+      <c r="I27">
+        <v>3.5214579152484493E-2</v>
+      </c>
+      <c r="J27">
+        <v>8.2383028576351464E-3</v>
+      </c>
+      <c r="K27">
+        <v>1.8111865389524109E-3</v>
+      </c>
+      <c r="L27">
+        <v>3.7653380053530658E-4</v>
+      </c>
+      <c r="M27">
+        <v>7.4417440385199217E-5</v>
+      </c>
+      <c r="N27">
+        <v>1.404658104355993E-5</v>
+      </c>
+      <c r="O27">
+        <v>2.5422798271463198E-6</v>
+      </c>
+      <c r="P27">
+        <v>4.4273667357550712E-7</v>
+      </c>
+      <c r="Q27">
+        <v>7.4415951552741346E-8</v>
+      </c>
+      <c r="R27">
+        <v>1.2104724601095331E-8</v>
+      </c>
+      <c r="S27">
+        <v>1.9092430525427409E-9</v>
+      </c>
+      <c r="T27">
+        <v>2.86652452605119E-10</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
+      <c r="B28">
+        <v>69.869050570918972</v>
+      </c>
+      <c r="C28">
+        <v>35.399991231160513</v>
+      </c>
+      <c r="D28">
+        <v>15.306499565696329</v>
+      </c>
+      <c r="E28">
+        <v>5.7840148355295327</v>
+      </c>
+      <c r="F28">
+        <v>1.946194688130948</v>
+      </c>
+      <c r="G28">
+        <v>0.59197946070280005</v>
+      </c>
+      <c r="H28">
+        <v>0.16480425049339281</v>
+      </c>
+      <c r="I28">
+        <v>4.2425713503968072E-2</v>
+      </c>
+      <c r="J28">
+        <v>1.0186355908088361E-2</v>
+      </c>
+      <c r="K28">
+        <v>2.2976614428738061E-3</v>
+      </c>
+      <c r="L28">
+        <v>4.8990327667668837E-4</v>
+      </c>
+      <c r="M28">
+        <v>9.9263562246843838E-5</v>
+      </c>
+      <c r="N28">
+        <v>1.9200371087557119E-5</v>
+      </c>
+      <c r="O28">
+        <v>3.559555478235215E-6</v>
+      </c>
+      <c r="P28">
+        <v>6.3468550752450766E-7</v>
+      </c>
+      <c r="Q28">
+        <v>1.09175961176307E-7</v>
+      </c>
+      <c r="R28">
+        <v>1.8166535122676861E-8</v>
+      </c>
+      <c r="S28">
+        <v>2.9297405888160111E-9</v>
+      </c>
+      <c r="T28">
+        <v>4.4916525837103429E-10</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
+      <c r="B29">
+        <v>70.538654707392055</v>
+      </c>
+      <c r="C29">
+        <v>36.495284617238347</v>
+      </c>
+      <c r="D29">
+        <v>16.143081853057591</v>
+      </c>
+      <c r="E29">
+        <v>6.2481576808926844</v>
+      </c>
+      <c r="F29">
+        <v>2.1550190757671772</v>
+      </c>
+      <c r="G29">
+        <v>0.67218531609454579</v>
+      </c>
+      <c r="H29">
+        <v>0.19192474881873539</v>
+      </c>
+      <c r="I29">
+        <v>5.0670410609707971E-2</v>
+      </c>
+      <c r="J29">
+        <v>1.2474786222429431E-2</v>
+      </c>
+      <c r="K29">
+        <v>2.8845407644142911E-3</v>
+      </c>
+      <c r="L29">
+        <v>6.3028682565521789E-4</v>
+      </c>
+      <c r="M29">
+        <v>1.3082724912776589E-4</v>
+      </c>
+      <c r="N29">
+        <v>2.5913758611839631E-5</v>
+      </c>
+      <c r="O29">
+        <v>4.9176121494448457E-6</v>
+      </c>
+      <c r="P29">
+        <v>8.9717407717044129E-7</v>
+      </c>
+      <c r="Q29">
+        <v>1.5784312547020911E-7</v>
+      </c>
+      <c r="R29">
+        <v>2.6851727443753931E-8</v>
+      </c>
+      <c r="S29">
+        <v>4.4252334307621123E-9</v>
+      </c>
+      <c r="T29">
+        <v>6.9239994209655466E-10</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>71.113498291686241</v>
+      </c>
+      <c r="C30">
+        <v>37.536080623401141</v>
+      </c>
+      <c r="D30">
+        <v>16.96861303215103</v>
+      </c>
+      <c r="E30">
+        <v>6.720285179568819</v>
+      </c>
+      <c r="F30">
+        <v>2.3735510604383081</v>
+      </c>
+      <c r="G30">
+        <v>0.75846674969693373</v>
+      </c>
+      <c r="H30">
+        <v>0.22190035898540789</v>
+      </c>
+      <c r="I30">
+        <v>6.002909535728753E-2</v>
+      </c>
+      <c r="J30">
+        <v>1.514139107391187E-2</v>
+      </c>
+      <c r="K30">
+        <v>3.5862474340667321E-3</v>
+      </c>
+      <c r="L30">
+        <v>8.0243716487710776E-4</v>
+      </c>
+      <c r="M30">
+        <v>1.7050613596110859E-4</v>
+      </c>
+      <c r="N30">
+        <v>3.4561192461894271E-5</v>
+      </c>
+      <c r="O30">
+        <v>6.7091720883629659E-6</v>
+      </c>
+      <c r="P30">
+        <v>1.251650951308179E-6</v>
+      </c>
+      <c r="Q30">
+        <v>2.2509074097511939E-7</v>
+      </c>
+      <c r="R30">
+        <v>3.9125724453438581E-8</v>
+      </c>
+      <c r="S30">
+        <v>6.5856705528157652E-9</v>
+      </c>
+      <c r="T30">
+        <v>1.051080677863634E-9</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
+      <c r="B31">
+        <v>71.599672925031257</v>
+      </c>
+      <c r="C31">
+        <v>38.522898851929433</v>
+      </c>
+      <c r="D31">
+        <v>17.781352635431219</v>
+      </c>
+      <c r="E31">
+        <v>7.1990514599354336</v>
+      </c>
+      <c r="F31">
+        <v>2.601328789022344</v>
+      </c>
+      <c r="G31">
+        <v>0.85082772540971408</v>
+      </c>
+      <c r="H31">
+        <v>0.25483885820683772</v>
+      </c>
+      <c r="I31">
+        <v>7.0581231271834952E-2</v>
+      </c>
+      <c r="J31">
+        <v>1.822530326867506E-2</v>
+      </c>
+      <c r="K31">
+        <v>4.4182777000550946E-3</v>
+      </c>
+      <c r="L31">
+        <v>1.011630456289675E-3</v>
+      </c>
+      <c r="M31">
+        <v>2.1989935518134789E-4</v>
+      </c>
+      <c r="N31">
+        <v>4.5583494326012219E-5</v>
+      </c>
+      <c r="O31">
+        <v>9.0464067721507641E-6</v>
+      </c>
+      <c r="P31">
+        <v>1.7247527656367931E-6</v>
+      </c>
+      <c r="Q31">
+        <v>3.1687143823049199E-7</v>
+      </c>
+      <c r="R31">
+        <v>5.6248826516347857E-8</v>
+      </c>
+      <c r="S31">
+        <v>9.664990588569639E-9</v>
+      </c>
+      <c r="T31">
+        <v>1.572655107714832E-9</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
+      <c r="B32">
+        <v>72.003091968868105</v>
+      </c>
+      <c r="C32">
+        <v>39.456488959822337</v>
+      </c>
+      <c r="D32">
+        <v>18.57976229943792</v>
+      </c>
+      <c r="E32">
+        <v>7.6831564391372336</v>
+      </c>
+      <c r="F32">
+        <v>2.837862818859056</v>
+      </c>
+      <c r="G32">
+        <v>0.94924457153978092</v>
+      </c>
+      <c r="H32">
+        <v>0.29083690084634201</v>
+      </c>
+      <c r="I32">
+        <v>8.2404763146706028E-2</v>
+      </c>
+      <c r="J32">
+        <v>2.1766773882958619E-2</v>
+      </c>
+      <c r="K32">
+        <v>5.3971672977556461E-3</v>
+      </c>
+      <c r="L32">
+        <v>1.2636806838095631E-3</v>
+      </c>
+      <c r="M32">
+        <v>2.8082191386207862E-4</v>
+      </c>
+      <c r="N32">
+        <v>5.9495127423728712E-5</v>
+      </c>
+      <c r="O32">
+        <v>1.206375470683508E-5</v>
+      </c>
+      <c r="P32">
+        <v>2.3492311734954018E-6</v>
+      </c>
+      <c r="Q32">
+        <v>4.4068773838834238E-7</v>
+      </c>
+      <c r="R32">
+        <v>7.984805525441327E-8</v>
+      </c>
+      <c r="S32">
+        <v>1.399873134630191E-8</v>
+      </c>
+      <c r="T32">
+        <v>2.321166909843953E-9</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
+      <c r="B33">
+        <v>72.329478478872716</v>
+      </c>
+      <c r="C33">
+        <v>40.33779900522417</v>
+      </c>
+      <c r="D33">
+        <v>19.362495099098659</v>
+      </c>
+      <c r="E33">
+        <v>8.1713511887324035</v>
+      </c>
+      <c r="F33">
+        <v>3.082641648305775</v>
+      </c>
+      <c r="G33">
+        <v>1.053667475963149</v>
+      </c>
+      <c r="H33">
+        <v>0.32997960891261469</v>
+      </c>
+      <c r="I33">
+        <v>9.557559269049061E-2</v>
+      </c>
+      <c r="J33">
+        <v>2.580694576567406E-2</v>
+      </c>
+      <c r="K33">
+        <v>6.540447374800658E-3</v>
+      </c>
+      <c r="L33">
+        <v>1.5649499469899139E-3</v>
+      </c>
+      <c r="M33">
+        <v>3.5531830893356588E-4</v>
+      </c>
+      <c r="N33">
+        <v>7.6891609270809253E-5</v>
+      </c>
+      <c r="O33">
+        <v>1.5920932696559329E-5</v>
+      </c>
+      <c r="P33">
+        <v>3.1649809938625139E-6</v>
+      </c>
+      <c r="Q33">
+        <v>6.0590204575460101E-7</v>
+      </c>
+      <c r="R33">
+        <v>1.120019397249212E-7</v>
+      </c>
+      <c r="S33">
+        <v>2.0025389576590819E-8</v>
+      </c>
+      <c r="T33">
+        <v>3.3820673068717401E-9</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
+      <c r="B34">
+        <v>72.584355626440285</v>
+      </c>
+      <c r="C34">
+        <v>41.167946748795423</v>
+      </c>
+      <c r="D34">
+        <v>20.128384665791199</v>
+      </c>
+      <c r="E34">
+        <v>8.6624421664437126</v>
+      </c>
+      <c r="F34">
+        <v>3.3351368884876109</v>
+      </c>
+      <c r="G34">
+        <v>1.1640221128044661</v>
+      </c>
+      <c r="H34">
+        <v>0.37234029763778292</v>
+      </c>
+      <c r="I34">
+        <v>0.1101670915357023</v>
+      </c>
+      <c r="J34">
+        <v>3.0387620998767972E-2</v>
+      </c>
+      <c r="K34">
+        <v>7.8665908755075845E-3</v>
+      </c>
+      <c r="L34">
+        <v>1.922354511083806E-3</v>
+      </c>
+      <c r="M34">
+        <v>4.4567519783367601E-4</v>
+      </c>
+      <c r="N34">
+        <v>9.8456995834921666E-5</v>
+      </c>
+      <c r="O34">
+        <v>2.08061258875726E-5</v>
+      </c>
+      <c r="P34">
+        <v>4.2201708278894558E-6</v>
+      </c>
+      <c r="Q34">
+        <v>8.2408869354310422E-7</v>
+      </c>
+      <c r="R34">
+        <v>1.553396565530437E-7</v>
+      </c>
+      <c r="S34">
+        <v>2.83120799145143E-8</v>
+      </c>
+      <c r="T34">
+        <v>4.8681325000283477E-9</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
+      <c r="B35">
+        <v>72.773039347394445</v>
+      </c>
+      <c r="C35">
+        <v>41.948193651224358</v>
+      </c>
+      <c r="D35">
+        <v>20.876434235416092</v>
+      </c>
+      <c r="E35">
+        <v>9.155294439919043</v>
+      </c>
+      <c r="F35">
+        <v>3.5948080628636601</v>
+      </c>
+      <c r="G35">
+        <v>1.2802113655088949</v>
+      </c>
+      <c r="H35">
+        <v>0.41798032695950232</v>
+      </c>
+      <c r="I35">
+        <v>0.12624965493160159</v>
+      </c>
+      <c r="J35">
+        <v>3.5551025352442721E-2</v>
+      </c>
+      <c r="K35">
+        <v>9.3949501942183385E-3</v>
+      </c>
+      <c r="L35">
+        <v>2.3433665198783851E-3</v>
+      </c>
+      <c r="M35">
+        <v>5.5443295547066406E-4</v>
+      </c>
+      <c r="N35">
+        <v>1.249713615252965E-4</v>
+      </c>
+      <c r="O35">
+        <v>2.693933870961402E-5</v>
+      </c>
+      <c r="P35">
+        <v>5.5724761694493534E-6</v>
+      </c>
+      <c r="Q35">
+        <v>1.109430398783417E-6</v>
+      </c>
+      <c r="R35">
+        <v>2.131559436213904E-7</v>
+      </c>
+      <c r="S35">
+        <v>3.9585076813697639E-8</v>
+      </c>
+      <c r="T35">
+        <v>6.9266712457966883E-9</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
+      <c r="B36">
+        <v>72.900632980929714</v>
+      </c>
+      <c r="C36">
+        <v>42.679921335576552</v>
+      </c>
+      <c r="D36">
+        <v>21.605805744625801</v>
+      </c>
+      <c r="E36">
+        <v>9.6488340187964035</v>
+      </c>
+      <c r="F36">
+        <v>3.8611070289340179</v>
+      </c>
+      <c r="G36">
+        <v>1.402117114951122</v>
+      </c>
+      <c r="H36">
+        <v>0.46694906899605682</v>
+      </c>
+      <c r="I36">
+        <v>0.14389029849792431</v>
+      </c>
+      <c r="J36">
+        <v>4.1339572578826353E-2</v>
+      </c>
+      <c r="K36">
+        <v>1.1145686989523861E-2</v>
+      </c>
+      <c r="L36">
+        <v>2.8360113415403518E-3</v>
+      </c>
+      <c r="M36">
+        <v>6.843959643314455E-4</v>
+      </c>
+      <c r="N36">
+        <v>1.5731819788230691E-4</v>
+      </c>
+      <c r="O36">
+        <v>3.4575885895797828E-5</v>
+      </c>
+      <c r="P36">
+        <v>7.2904137365865233E-6</v>
+      </c>
+      <c r="Q36">
+        <v>1.4791611665898561E-6</v>
+      </c>
+      <c r="R36">
+        <v>2.8954319417367439E-7</v>
+      </c>
+      <c r="S36">
+        <v>5.4765853661043899E-8</v>
+      </c>
+      <c r="T36">
+        <v>9.7482237402415518E-9</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
+      <c r="B37">
+        <v>72.972023682736804</v>
+      </c>
+      <c r="C37">
+        <v>43.364610306727187</v>
+      </c>
+      <c r="D37">
+        <v>22.31580907010073</v>
+      </c>
+      <c r="E37">
+        <v>10.142049401910921</v>
+      </c>
+      <c r="F37">
+        <v>4.1334820226525801</v>
+      </c>
+      <c r="G37">
+        <v>1.52960206487627</v>
+      </c>
+      <c r="H37">
+        <v>0.51928398116430541</v>
+      </c>
+      <c r="I37">
+        <v>0.1631522995554493</v>
+      </c>
+      <c r="J37">
+        <v>4.7795631165655793E-2</v>
+      </c>
+      <c r="K37">
+        <v>1.3139695111230259E-2</v>
+      </c>
+      <c r="L37">
+        <v>3.4088605781347459E-3</v>
+      </c>
+      <c r="M37">
+        <v>8.3864150246915482E-4</v>
+      </c>
+      <c r="N37">
+        <v>1.9649165352493041E-4</v>
+      </c>
+      <c r="O37">
+        <v>4.4010000113500918E-5</v>
+      </c>
+      <c r="P37">
+        <v>9.4547744233601742E-6</v>
+      </c>
+      <c r="Q37">
+        <v>1.9540573178900539E-6</v>
+      </c>
+      <c r="R37">
+        <v>3.89542103672419E-7</v>
+      </c>
+      <c r="S37">
+        <v>7.5013258189091047E-8</v>
+      </c>
+      <c r="T37">
+        <v>1.3576969306352439E-8</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
+      <c r="B38">
+        <v>72.991880415200924</v>
+      </c>
+      <c r="C38">
+        <v>44.003820740398183</v>
+      </c>
+      <c r="D38">
+        <v>23.00589148648276</v>
+      </c>
+      <c r="E38">
+        <v>10.63399243734268</v>
+      </c>
+      <c r="F38">
+        <v>4.411381331099645</v>
+      </c>
+      <c r="G38">
+        <v>1.662511580444922</v>
+      </c>
+      <c r="H38">
+        <v>0.57501077439834847</v>
+      </c>
+      <c r="I38">
+        <v>0.18409488377731259</v>
+      </c>
+      <c r="J38">
+        <v>5.4961295929567978E-2</v>
+      </c>
+      <c r="K38">
+        <v>1.539851763072579E-2</v>
+      </c>
+      <c r="L38">
+        <v>4.0710208255777076E-3</v>
+      </c>
+      <c r="M38">
+        <v>1.0205271134666621E-3</v>
+      </c>
+      <c r="N38">
+        <v>2.4360353882446091E-4</v>
+      </c>
+      <c r="O38">
+        <v>5.5578530426389662E-5</v>
+      </c>
+      <c r="P38">
+        <v>1.2160150939427541E-5</v>
+      </c>
+      <c r="Q38">
+        <v>2.5589779033075691E-6</v>
+      </c>
+      <c r="R38">
+        <v>5.1931218490653033E-7</v>
+      </c>
+      <c r="S38">
+        <v>1.017724819318846E-7</v>
+      </c>
+      <c r="T38">
+        <v>1.8723075742157939E-8</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
+      <c r="B39">
+        <v>72.964653334755212</v>
+      </c>
+      <c r="C39">
+        <v>44.599175171882663</v>
+      </c>
+      <c r="D39">
+        <v>23.675627402566189</v>
+      </c>
+      <c r="E39">
+        <v>11.123778584292671</v>
+      </c>
+      <c r="F39">
+        <v>4.6942566028939323</v>
+      </c>
+      <c r="G39">
+        <v>1.8006755189238051</v>
+      </c>
+      <c r="H39">
+        <v>0.6341436659397206</v>
+      </c>
+      <c r="I39">
+        <v>0.20677295722278749</v>
+      </c>
+      <c r="J39">
+        <v>6.2878166574291891E-2</v>
+      </c>
+      <c r="K39">
+        <v>1.7944258984845082E-2</v>
+      </c>
+      <c r="L39">
+        <v>4.8321183218894828E-3</v>
+      </c>
+      <c r="M39">
+        <v>1.2336963628310691E-3</v>
+      </c>
+      <c r="N39">
+        <v>2.9989002082774277E-4</v>
+      </c>
+      <c r="O39">
+        <v>6.966470386544049E-5</v>
+      </c>
+      <c r="P39">
+        <v>1.551655489127374E-5</v>
+      </c>
+      <c r="Q39">
+        <v>3.3234553151843599E-6</v>
+      </c>
+      <c r="R39">
+        <v>6.8632338755487903E-7</v>
+      </c>
+      <c r="S39">
+        <v>1.368314930297577E-7</v>
+      </c>
+      <c r="T39">
+        <v>2.557723722805048E-8</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
+      <c r="B40">
+        <v>72.894574412125436</v>
+      </c>
+      <c r="C40">
+        <v>45.152342929840763</v>
+      </c>
+      <c r="D40">
+        <v>24.3247084220326</v>
+      </c>
+      <c r="E40">
+        <v>11.610586657554579</v>
+      </c>
+      <c r="F40">
+        <v>4.9815658088504842</v>
+      </c>
+      <c r="G40">
+        <v>1.9439100346032969</v>
+      </c>
+      <c r="H40">
+        <v>0.69668570634975402</v>
+      </c>
+      <c r="I40">
+        <v>0.2312368832216278</v>
+      </c>
+      <c r="J40">
+        <v>7.1587135079005104E-2</v>
+      </c>
+      <c r="K40">
+        <v>2.0799493245297729E-2</v>
+      </c>
+      <c r="L40">
+        <v>5.7022796672484312E-3</v>
+      </c>
+      <c r="M40">
+        <v>1.4820829061859941E-3</v>
+      </c>
+      <c r="N40">
+        <v>3.6671793706011908E-4</v>
+      </c>
+      <c r="O40">
+        <v>8.670192083894948E-5</v>
+      </c>
+      <c r="P40">
+        <v>1.9651116786642432E-5</v>
+      </c>
+      <c r="Q40">
+        <v>4.282336426444103E-6</v>
+      </c>
+      <c r="R40">
+        <v>8.9956995699255808E-7</v>
+      </c>
+      <c r="S40">
+        <v>1.8238560551200151E-7</v>
+      </c>
+      <c r="T40">
+        <v>3.462766005949189E-8</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
+      <c r="B41">
+        <v>72.785659135498548</v>
+      </c>
+      <c r="C41">
+        <v>45.665026173961436</v>
+      </c>
+      <c r="D41">
+        <v>24.95293376393283</v>
+      </c>
+      <c r="E41">
+        <v>12.09365812765709</v>
+      </c>
+      <c r="F41">
+        <v>5.272775867662733</v>
+      </c>
+      <c r="G41">
+        <v>2.0920193428214962</v>
+      </c>
+      <c r="H41">
+        <v>0.76262917070775116</v>
+      </c>
+      <c r="I41">
+        <v>0.25753230306897118</v>
+      </c>
+      <c r="J41">
+        <v>8.1128183521984171E-2</v>
+      </c>
+      <c r="K41">
+        <v>2.3987169512235468E-2</v>
+      </c>
+      <c r="L41">
+        <v>6.6921088392086388E-3</v>
+      </c>
+      <c r="M41">
+        <v>1.7699128156844031E-3</v>
+      </c>
+      <c r="N41">
+        <v>4.455906608902775E-4</v>
+      </c>
+      <c r="O41">
+        <v>1.07177553973133E-4</v>
+      </c>
+      <c r="P41">
+        <v>2.4709861233281881E-5</v>
+      </c>
+      <c r="Q41">
+        <v>5.4764740764239658E-6</v>
+      </c>
+      <c r="R41">
+        <v>1.1698075443143329E-6</v>
+      </c>
+      <c r="S41">
+        <v>2.4111085372689E-7</v>
+      </c>
+      <c r="T41">
+        <v>4.6479765825554393E-8</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42">
+        <v>72.641709159734802</v>
+      </c>
+      <c r="C42">
+        <v>46.138947407113108</v>
+      </c>
+      <c r="D42">
+        <v>25.560201068887491</v>
+      </c>
+      <c r="E42">
+        <v>12.57229604259512</v>
+      </c>
+      <c r="F42">
+        <v>5.5673649530281626</v>
+      </c>
+      <c r="G42">
+        <v>2.244797430529105</v>
+      </c>
+      <c r="H42">
+        <v>0.83195600437516459</v>
+      </c>
+      <c r="I42">
+        <v>0.28569999906389171</v>
+      </c>
+      <c r="J42">
+        <v>9.1540193689124916E-2</v>
+      </c>
+      <c r="K42">
+        <v>2.7530515403617641E-2</v>
+      </c>
+      <c r="L42">
+        <v>7.8126607603875523E-3</v>
+      </c>
+      <c r="M42">
+        <v>2.1017051318938979E-3</v>
+      </c>
+      <c r="N42">
+        <v>5.3815345601893418E-4</v>
+      </c>
+      <c r="O42">
+        <v>1.316367192521793E-4</v>
+      </c>
+      <c r="P42">
+        <v>3.0859548473504038E-5</v>
+      </c>
+      <c r="Q42">
+        <v>6.9534681976057896E-6</v>
+      </c>
+      <c r="R42">
+        <v>1.50981443648036E-6</v>
+      </c>
+      <c r="S42">
+        <v>3.1624682743026751E-7</v>
+      </c>
+      <c r="T42">
+        <v>6.1878889672392914E-8</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="B43">
+        <v>72.466315776751756</v>
+      </c>
+      <c r="C43">
+        <v>46.575838343100067</v>
+      </c>
+      <c r="D43">
+        <v>26.14649760928555</v>
+      </c>
+      <c r="E43">
+        <v>13.04586363044684</v>
+      </c>
+      <c r="F43">
+        <v>5.8648244997545893</v>
+      </c>
+      <c r="G43">
+        <v>2.4020297031426772</v>
+      </c>
+      <c r="H43">
+        <v>0.90463831420041008</v>
+      </c>
+      <c r="I43">
+        <v>0.3157757980737112</v>
+      </c>
+      <c r="J43">
+        <v>0.102860769569758</v>
+      </c>
+      <c r="K43">
+        <v>3.1452939573719058E-2</v>
+      </c>
+      <c r="L43">
+        <v>9.0754117039478152E-3</v>
+      </c>
+      <c r="M43">
+        <v>2.4822706286798872E-3</v>
+      </c>
+      <c r="N43">
+        <v>6.4619826323682856E-4</v>
+      </c>
+      <c r="O43">
+        <v>1.6068598801745061E-4</v>
+      </c>
+      <c r="P43">
+        <v>3.8289572363963563E-5</v>
+      </c>
+      <c r="Q43">
+        <v>8.7684553412207288E-6</v>
+      </c>
+      <c r="R43">
+        <v>1.9346776136646171E-6</v>
+      </c>
+      <c r="S43">
+        <v>4.11689600911722E-7</v>
+      </c>
+      <c r="T43">
+        <v>8.1736256677009202E-8</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
+      <c r="B44">
+        <v>72.262864093246264</v>
+      </c>
+      <c r="C44">
+        <v>46.977430020507029</v>
+      </c>
+      <c r="D44">
+        <v>26.711891915354901</v>
+      </c>
+      <c r="E44">
+        <v>13.51378263606968</v>
+      </c>
+      <c r="F44">
+        <v>6.164660927070023</v>
+      </c>
+      <c r="G44">
+        <v>2.5634945595132899</v>
+      </c>
+      <c r="H44">
+        <v>0.98063889658922299</v>
+      </c>
+      <c r="I44">
+        <v>0.34779051352531531</v>
+      </c>
+      <c r="J44">
+        <v>0.1151260736064592</v>
+      </c>
+      <c r="K44">
+        <v>3.5777934146368602E-2</v>
+      </c>
+      <c r="L44">
+        <v>1.0492226844397341E-2</v>
+      </c>
+      <c r="M44">
+        <v>2.9167087980450728E-3</v>
+      </c>
+      <c r="N44">
+        <v>7.7166786875764218E-4</v>
+      </c>
+      <c r="O44">
+        <v>1.9499700848038301E-4</v>
+      </c>
+      <c r="P44">
+        <v>4.7213903989779419E-5</v>
+      </c>
+      <c r="Q44">
+        <v>1.098494482187416E-5</v>
+      </c>
+      <c r="R44">
+        <v>2.4621041621368201E-6</v>
+      </c>
+      <c r="S44">
+        <v>5.3209535830201241E-7</v>
+      </c>
+      <c r="T44">
+        <v>1.071585218458364E-7</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
+      <c r="B45">
+        <v>72.034537812082831</v>
+      </c>
+      <c r="C45">
+        <v>47.345444061522088</v>
+      </c>
+      <c r="D45">
+        <v>27.256525823649749</v>
+      </c>
+      <c r="E45">
+        <v>13.975531439462941</v>
+      </c>
+      <c r="F45">
+        <v>6.4663970976918668</v>
+      </c>
+      <c r="G45">
+        <v>2.728964888693854</v>
+      </c>
+      <c r="H45">
+        <v>1.059911794452892</v>
+      </c>
+      <c r="I45">
+        <v>0.38176992350778599</v>
+      </c>
+      <c r="J45">
+        <v>0.12837067734356539</v>
+      </c>
+      <c r="K45">
+        <v>4.052897789317185E-2</v>
+      </c>
+      <c r="L45">
+        <v>1.2075325277818939E-2</v>
+      </c>
+      <c r="M45">
+        <v>3.4104030802360849E-3</v>
+      </c>
+      <c r="N45">
+        <v>9.1665941004088905E-4</v>
+      </c>
+      <c r="O45">
+        <v>2.3531000588627931E-4</v>
+      </c>
+      <c r="P45">
+        <v>5.7873069305373689E-5</v>
+      </c>
+      <c r="Q45">
+        <v>1.3675699169396439E-5</v>
+      </c>
+      <c r="R45">
+        <v>3.112758377447741E-6</v>
+      </c>
+      <c r="S45">
+        <v>6.8299527688556721E-7</v>
+      </c>
+      <c r="T45">
+        <v>1.3948115861782911E-7</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
+      <c r="B46">
+        <v>72.034537812082831</v>
+      </c>
+      <c r="C46">
+        <v>47.345444061522088</v>
+      </c>
+      <c r="D46">
+        <v>27.256525823649749</v>
+      </c>
+      <c r="E46">
+        <v>13.975531439462941</v>
+      </c>
+      <c r="F46">
+        <v>6.4663970976918668</v>
+      </c>
+      <c r="G46">
+        <v>2.728964888693854</v>
+      </c>
+      <c r="H46">
+        <v>1.059911794452892</v>
+      </c>
+      <c r="I46">
+        <v>0.38176992350778599</v>
+      </c>
+      <c r="J46">
+        <v>0.12837067734356539</v>
+      </c>
+      <c r="K46">
+        <v>4.052897789317185E-2</v>
+      </c>
+      <c r="L46">
+        <v>1.2075325277818939E-2</v>
+      </c>
+      <c r="M46">
+        <v>3.4104030802360849E-3</v>
+      </c>
+      <c r="N46">
+        <v>9.1665941004088905E-4</v>
+      </c>
+      <c r="O46">
+        <v>2.3531000588627931E-4</v>
+      </c>
+      <c r="P46">
+        <v>5.7873069305373689E-5</v>
+      </c>
+      <c r="Q46">
+        <v>1.3675699169396439E-5</v>
+      </c>
+      <c r="R46">
+        <v>3.112758377447741E-6</v>
+      </c>
+      <c r="S46">
+        <v>6.8299527688556721E-7</v>
+      </c>
+      <c r="T46">
+        <v>1.3948115861782911E-7</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
+      <c r="B47">
+        <v>71.784324523044589</v>
+      </c>
+      <c r="C47">
+        <v>47.681584982216947</v>
+      </c>
+      <c r="D47">
+        <v>27.780606950075061</v>
+      </c>
+      <c r="E47">
+        <v>14.43064299824959</v>
+      </c>
+      <c r="F47">
+        <v>6.7695735312573406</v>
+      </c>
+      <c r="G47">
+        <v>2.8982094838335239</v>
+      </c>
+      <c r="H47">
+        <v>1.142402875655592</v>
+      </c>
+      <c r="I47">
+        <v>0.4177347825114105</v>
+      </c>
+      <c r="J47">
+        <v>0.1426274269125363</v>
+      </c>
+      <c r="K47">
+        <v>4.5729440925798871E-2</v>
+      </c>
+      <c r="L47">
+        <v>1.383724284689926E-2</v>
+      </c>
+      <c r="M47">
+        <v>3.9690143815037304E-3</v>
+      </c>
+      <c r="N47">
+        <v>1.083427181953759E-3</v>
+      </c>
+      <c r="O47">
+        <v>2.8243713131465871E-4</v>
+      </c>
+      <c r="P47">
+        <v>7.0536148530301804E-5</v>
+      </c>
+      <c r="Q47">
+        <v>1.692365605754638E-5</v>
+      </c>
+      <c r="R47">
+        <v>3.9106246866652506E-6</v>
+      </c>
+      <c r="S47">
+        <v>8.7092218100300145E-7</v>
+      </c>
+      <c r="T47">
+        <v>1.8030597680868029E-7</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
+      <c r="B48">
+        <v>71.515021417286974</v>
+      </c>
+      <c r="C48">
+        <v>47.987533467648547</v>
+      </c>
+      <c r="D48">
+        <v>28.28440158590519</v>
+      </c>
+      <c r="E48">
+        <v>14.8787026520385</v>
+      </c>
+      <c r="F48">
+        <v>7.0737493905331874</v>
+      </c>
+      <c r="G48">
+        <v>3.070994369975975</v>
+      </c>
+      <c r="H48">
+        <v>1.228050426199391</v>
+      </c>
+      <c r="I48">
+        <v>0.45570086422029638</v>
+      </c>
+      <c r="J48">
+        <v>0.15792732360227671</v>
+      </c>
+      <c r="K48">
+        <v>5.1402491606011208E-2</v>
+      </c>
+      <c r="L48">
+        <v>1.5790793112400048E-2</v>
+      </c>
+      <c r="M48">
+        <v>4.598472937548689E-3</v>
+      </c>
+      <c r="N48">
+        <v>1.274384713259314E-3</v>
+      </c>
+      <c r="O48">
+        <v>3.3726563028937511E-4</v>
+      </c>
+      <c r="P48">
+        <v>8.5502784503392718E-5</v>
+      </c>
+      <c r="Q48">
+        <v>2.082288838104693E-5</v>
+      </c>
+      <c r="R48">
+        <v>4.8833963024580102E-6</v>
+      </c>
+      <c r="S48">
+        <v>1.103549421278584E-6</v>
+      </c>
+      <c r="T48">
+        <v>2.315430435439371E-7</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
+      <c r="B49">
+        <v>71.229241347816668</v>
+      </c>
+      <c r="C49">
+        <v>48.264940531424628</v>
+      </c>
+      <c r="D49">
+        <v>28.768228012233742</v>
+      </c>
+      <c r="E49">
+        <v>15.319345822149749</v>
+      </c>
+      <c r="F49">
+        <v>7.3785032584564476</v>
+      </c>
+      <c r="G49">
+        <v>3.247084043803917</v>
+      </c>
+      <c r="H49">
+        <v>1.3167857520006681</v>
+      </c>
+      <c r="I49">
+        <v>0.4956790327133847</v>
+      </c>
+      <c r="J49">
+        <v>0.17429941958970729</v>
+      </c>
+      <c r="K49">
+        <v>5.7571006308913132E-2</v>
+      </c>
+      <c r="L49">
+        <v>1.7949026814393091E-2</v>
+      </c>
+      <c r="M49">
+        <v>5.3049685947861832E-3</v>
+      </c>
+      <c r="N49">
+        <v>1.492106090647952E-3</v>
+      </c>
+      <c r="O49">
+        <v>4.0076080386770949E-4</v>
+      </c>
+      <c r="P49">
+        <v>1.031051868166471E-4</v>
+      </c>
+      <c r="Q49">
+        <v>2.5479598681265249E-5</v>
+      </c>
+      <c r="R49">
+        <v>6.06288929861242E-6</v>
+      </c>
+      <c r="S49">
+        <v>1.389842367889714E-6</v>
+      </c>
+      <c r="T49">
+        <v>2.9545726980613292E-7</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
+      <c r="B50">
+        <v>70.929419165692792</v>
+      </c>
+      <c r="C50">
+        <v>48.515422485125313</v>
+      </c>
+      <c r="D50">
+        <v>29.23245022581651</v>
+      </c>
+      <c r="E50">
+        <v>15.75225563629227</v>
+      </c>
+      <c r="F50">
+        <v>7.6834337235495047</v>
+      </c>
+      <c r="G50">
+        <v>3.4262426244699742</v>
+      </c>
+      <c r="H50">
+        <v>1.408533783716146</v>
+      </c>
+      <c r="I50">
+        <v>0.53767533940579049</v>
+      </c>
+      <c r="J50">
+        <v>0.19177072875050849</v>
+      </c>
+      <c r="K50">
+        <v>6.4257482605241764E-2</v>
+      </c>
+      <c r="L50">
+        <v>2.0325190164082799E-2</v>
+      </c>
+      <c r="M50">
+        <v>6.0949395940451331E-3</v>
+      </c>
+      <c r="N50">
+        <v>1.73932651474435E-3</v>
+      </c>
+      <c r="O50">
+        <v>4.739687366485357E-4</v>
+      </c>
+      <c r="P50">
+        <v>1.2371011831305E-4</v>
+      </c>
+      <c r="Q50">
+        <v>3.1013143682600637E-5</v>
+      </c>
+      <c r="R50">
+        <v>7.4854815688437742E-6</v>
+      </c>
+      <c r="S50">
+        <v>1.7402228329788379E-6</v>
+      </c>
+      <c r="T50">
+        <v>3.7471991072796547E-7</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
+      <c r="B51">
+        <v>70.617818268462656</v>
+      </c>
+      <c r="C51">
+        <v>48.740556648261027</v>
+      </c>
+      <c r="D51">
+        <v>29.67747206725598</v>
+      </c>
+      <c r="E51">
+        <v>16.177160504244451</v>
+      </c>
+      <c r="F51">
+        <v>7.9881597906352706</v>
+      </c>
+      <c r="G51">
+        <v>3.608234915598183</v>
+      </c>
+      <c r="H51">
+        <v>1.503213679663701</v>
+      </c>
+      <c r="I51">
+        <v>0.58169114307365843</v>
+      </c>
+      <c r="J51">
+        <v>0.2103661523319667</v>
+      </c>
+      <c r="K51">
+        <v>7.1483956358503034E-2</v>
+      </c>
+      <c r="L51">
+        <v>2.293268230080522E-2</v>
+      </c>
+      <c r="M51">
+        <v>6.9750599521376817E-3</v>
+      </c>
+      <c r="N51">
+        <v>2.0189420796270269E-3</v>
+      </c>
+      <c r="O51">
+        <v>5.580187681498383E-4</v>
+      </c>
+      <c r="P51">
+        <v>1.477208504389332E-4</v>
+      </c>
+      <c r="Q51">
+        <v>3.755708430156856E-5</v>
+      </c>
+      <c r="R51">
+        <v>9.1925759013028876E-6</v>
+      </c>
+      <c r="S51">
+        <v>2.1667466567761331E-6</v>
+      </c>
+      <c r="T51">
+        <v>4.7246520971556558E-7</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
+      </c>
+      <c r="B52">
+        <v>70.296537303643504</v>
+      </c>
+      <c r="C52">
+        <v>48.941877734328401</v>
+      </c>
+      <c r="D52">
+        <v>30.10373174085565</v>
+      </c>
+      <c r="E52">
+        <v>16.59383166737873</v>
+      </c>
+      <c r="F52">
+        <v>8.2923211330803284</v>
+      </c>
+      <c r="G52">
+        <v>3.7928273793451739</v>
+      </c>
+      <c r="H52">
+        <v>1.6007394224474101</v>
+      </c>
+      <c r="I52">
+        <v>0.6277232503460024</v>
+      </c>
+      <c r="J52">
+        <v>0.23010841914889629</v>
+      </c>
+      <c r="K52">
+        <v>7.9271923163410377E-2</v>
+      </c>
+      <c r="L52">
+        <v>2.5785012239266061E-2</v>
+      </c>
+      <c r="M52">
+        <v>7.9522255458822876E-3</v>
+      </c>
+      <c r="N52">
+        <v>2.3340087743061099E-3</v>
+      </c>
+      <c r="O52">
+        <v>6.541256862184785E-4</v>
+      </c>
+      <c r="P52">
+        <v>1.7557907398885029E-4</v>
+      </c>
+      <c r="Q52">
+        <v>4.5260256133186401E-5</v>
+      </c>
+      <c r="R52">
+        <v>1.1231086172745531E-5</v>
+      </c>
+      <c r="S52">
+        <v>2.6832946053377722E-6</v>
+      </c>
+      <c r="T52">
+        <v>5.9235239495050621E-7</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -33230,14 +36648,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -33286,6 +36704,10 @@
       <c r="C3">
         <f>B3*(10^6)</f>
         <v>7.2899999999999995E+28</v>
+      </c>
+      <c r="D3">
+        <f>C3*0.18</f>
+        <v>1.3122E+28</v>
       </c>
       <c r="E3">
         <f>C4/(C6*C1)</f>
